--- a/Task.xlsx
+++ b/Task.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hoang Hai\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\React-JS\BC37_Jira_NguyenLeHoangHai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B015E6-96A9-4392-A4EB-7E3AF414904C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1AB200-7318-46D7-A362-F236B36D73F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7D401D98-467C-4007-9FE0-D9744F3C016B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -85,6 +85,15 @@
   </si>
   <si>
     <t>Lộc</t>
+  </si>
+  <si>
+    <t>https://github.com/hoanghai86/BC37_Jira_NguyenLeHoangHai.git</t>
+  </si>
+  <si>
+    <t>https://bc37-react-jira-hainlh.vercel.app/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=R0jXQBBAn-M</t>
   </si>
 </sst>
 </file>
@@ -546,7 +555,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403EE276-A57A-4F5E-9B2F-3A2F395748BB}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
   <cols>
@@ -592,7 +603,9 @@
       <c r="N1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="10"/>
+      <c r="O1" s="10" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -625,7 +638,9 @@
       <c r="N2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="10"/>
+      <c r="O2" s="10" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -658,7 +673,9 @@
       <c r="N3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="10"/>
+      <c r="O3" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="9"/>
@@ -723,7 +740,12 @@
       <c r="G11" s="9"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="O1" r:id="rId1" xr:uid="{875BFAB2-2ED4-41D0-AC49-70084A841C4F}"/>
+    <hyperlink ref="O2" r:id="rId2" xr:uid="{1B5AFBC2-12CB-462B-8A56-5DA79768902A}"/>
+    <hyperlink ref="O3" r:id="rId3" xr:uid="{C5C6E3DC-B601-4ED3-8124-D09EE22534B0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>